--- a/download/20200322-house-cash-cap-roi.xlsx
+++ b/download/20200322-house-cash-cap-roi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>房总价</t>
   </si>
@@ -59,9 +59,6 @@
     <t>ROI RATE</t>
   </si>
   <si>
-    <t>输入参数</t>
-  </si>
-  <si>
     <t>结果</t>
   </si>
   <si>
@@ -87,15 +84,21 @@
   </si>
   <si>
     <t>HOME 7</t>
+  </si>
+  <si>
+    <t>HOME 8</t>
+  </si>
+  <si>
+    <t>买入参数</t>
+  </si>
+  <si>
+    <t>GROSS RENTAL YIELD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,32 +442,35 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -472,7 +479,7 @@
         <v>360000</v>
       </c>
       <c r="D3">
-        <v>37500</v>
+        <v>375000</v>
       </c>
       <c r="E3">
         <v>828000</v>
@@ -481,16 +488,19 @@
         <v>850000</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>197000</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>309300</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>315000</v>
+      </c>
+      <c r="J3">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -507,16 +517,19 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="J4">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -533,16 +546,19 @@
         <v>400</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -559,16 +575,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="J6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -593,8 +612,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -605,22 +627,26 @@
         <v>75000</v>
       </c>
       <c r="E8">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="F8">
         <v>400000</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <f>197000*0.25</f>
+        <v>49250</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>309300</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63000</v>
+      </c>
+      <c r="J8">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -633,24 +659,30 @@
         <v>758.58333333333337</v>
       </c>
       <c r="E9">
-        <f>15015/12</f>
-        <v>1251.25</v>
+        <f>17859/12</f>
+        <v>1488.25</v>
       </c>
       <c r="F9">
         <f>12797/12</f>
         <v>1066.4166666666667</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f>4202/12</f>
+        <v>350.16666666666669</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f>7166/12</f>
+        <v>597.16666666666663</v>
+      </c>
+      <c r="J9">
+        <f>7735/12</f>
+        <v>644.58333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -663,26 +695,32 @@
         <v>542.33333333333337</v>
       </c>
       <c r="E10">
-        <f>14019/12</f>
-        <v>1168.25</v>
+        <f>16674/12</f>
+        <v>1389.5</v>
       </c>
       <c r="F10">
         <f>11948/12</f>
         <v>995.66666666666663</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f>3923/12</f>
+        <v>326.91666666666669</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f>6691/12</f>
+        <v>557.58333333333337</v>
+      </c>
+      <c r="J10">
+        <f>7221/12</f>
+        <v>601.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -697,115 +735,167 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>4700</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <f>(C4*12-C5*12-C6*12-C7*12-(C9+C10)*12)/(C8+C11)</f>
         <v>-2.1486111111111084E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <f t="shared" ref="D13:I13" si="0">(D4*12-D5*12-D6*12-D7*12-(D9+D10)*12)/(D8+D11)</f>
         <v>1.1877777777777777E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>7.3353658536585362E-3</v>
-      </c>
-      <c r="F13" s="2">
+        <v>-1.356578947368421E-2</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>-4.3862499999999999E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+        <v>0.14398268398268399</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+        <v>5.2919254658385095E-2</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-2.03397341211226E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" ref="J13" si="1">(J4*12-J5*12-J6*12-J7*12-(J9+J10)*12)/(J8+J11)</f>
+        <v>-2.1657142857142882E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <f>(C4*12-C5*12-C6*12-C7*12)/(C3+C11)</f>
         <v>3.7333333333333336E-2</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:I14" si="1">(D4*12-D5*12-D6*12-D7*12)/(D3+D11)</f>
-        <v>0.31771428571428573</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:I14" si="2">(D4*12-D5*12-D6*12-D7*12)/(D3+D11)</f>
+        <v>4.2769230769230768E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="2"/>
         <v>3.6728971962616826E-2</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
         <v>8.4705882352941169E-3</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2919254658385095E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9036596809508918E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" ref="J14" si="3">(J4*12-J5*12-J6*12-J7*12)/(J3+J11)</f>
+        <v>3.9298245614035089E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <f>(C4*12-C5*12-C6*12-C7*12-C10*12)/(C8+C11)</f>
         <v>9.9888888888888888E-2</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:I15" si="2">(D4*12-D5*12-D6*12-D7*12-D10*12)/(D8+D11)</f>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:I15" si="4">(D4*12-D5*12-D6*12-D7*12-D10*12)/(D8+D11)</f>
         <v>0.11302222222222222</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3112804878048779E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
+      <c r="E15" s="4">
+        <f t="shared" si="4"/>
+        <v>6.4763157894736842E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
         <v>-1.187E-2</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="G15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21674458874458874</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="4"/>
+        <v>5.2919254658385095E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5509601181683895E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15" si="5">(J4*12-J5*12-J6*12-J7*12-J10*12)/(J8+J11)</f>
+        <v>8.884285714285714E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C3/(C4-C5-C6-C7)</f>
+        <v>321.42857142857144</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:J16" si="6">D3/(D4-D5-D6-D7)</f>
+        <v>269.78417266187051</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="6"/>
+        <v>316.03053435114504</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="6"/>
+        <v>1416.6666666666667</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="6"/>
+        <v>143.79562043795622</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="6"/>
+        <v>217.81690140845072</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="6"/>
+        <v>302.88461538461536</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="6"/>
+        <v>303.57142857142856</v>
       </c>
     </row>
   </sheetData>

--- a/download/20200322-house-cash-cap-roi.xlsx
+++ b/download/20200322-house-cash-cap-roi.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CASH-CAP-ROI" sheetId="1" r:id="rId1"/>
+    <sheet name="120" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>房总价</t>
   </si>
@@ -93,12 +95,21 @@
   </si>
   <si>
     <t>GROSS RENTAL YIELD</t>
+  </si>
+  <si>
+    <t>隐现金流</t>
+  </si>
+  <si>
+    <t>现金流</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,12 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +453,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -592,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -752,149 +766,224 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <f>(C4*12-C5*12-C6*12-C7*12-(C9+C10)*12)/(C8+C11)</f>
-        <v>-2.1486111111111084E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" ref="D13:I13" si="0">(D4*12-D5*12-D6*12-D7*12-(D9+D10)*12)/(D8+D11)</f>
-        <v>1.1877777777777777E-2</v>
-      </c>
-      <c r="E13" s="4">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C4-C5-C6-C7-(C9+C10)</f>
+        <v>-178.91666666666652</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:J13" si="0">D4-D5-D6-D7-(D9+D10)</f>
+        <v>89.083333333333258</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>-1.356578947368421E-2</v>
-      </c>
-      <c r="F13" s="4">
+        <v>-257.75</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>-4.3862499999999999E-2</v>
-      </c>
-      <c r="G13" s="4">
+        <v>-1462.0833333333335</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0.14398268398268399</v>
-      </c>
-      <c r="H13" s="4">
+        <v>692.91666666666663</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>5.2919254658385095E-2</v>
-      </c>
-      <c r="I13" s="4">
+        <v>1420</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>-2.03397341211226E-2</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" ref="J13" si="1">(J4*12-J5*12-J6*12-J7*12-(J9+J10)*12)/(J8+J11)</f>
-        <v>-2.1657142857142882E-2</v>
+        <v>-114.75</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>-126.33333333333348</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <f>(C4*12-C5*12-C6*12-C7*12)/(C3+C11)</f>
-        <v>3.7333333333333336E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" ref="D14:I14" si="2">(D4*12-D5*12-D6*12-D7*12)/(D3+D11)</f>
-        <v>4.2769230769230768E-2</v>
-      </c>
-      <c r="E14" s="4">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C4-C5-C6-C7-C10</f>
+        <v>549.33333333333337</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:J14" si="1">D4-D5-D6-D7-D10</f>
+        <v>847.66666666666663</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>1230.5</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>-395.66666666666663</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>1043.0833333333333</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>1420</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>482.41666666666663</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>518.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f>(C4-C5-C6-C7-(C9+C10))*12/(C8+C11)</f>
+        <v>-2.9819444444444419E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:J15" si="2">(D4-D5-D6-D7-(D9+D10))*12/(D8+D11)</f>
+        <v>1.1877777777777768E-2</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="2"/>
-        <v>3.6728971962616826E-2</v>
-      </c>
-      <c r="F14" s="4">
+        <v>-1.356578947368421E-2</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>8.4705882352941169E-3</v>
-      </c>
-      <c r="G14" s="4">
+        <v>-4.3862499999999999E-2</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-      <c r="H14" s="4">
+        <v>0.14398268398268399</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="2"/>
         <v>5.2919254658385095E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <f t="shared" si="2"/>
+        <v>-2.03397341211226E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.1657142857142882E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(C4-C5-C6-C7)*12/(C3+C11)</f>
+        <v>3.5666666666666666E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:J16" si="3">(D4-D5-D6-D7)*12/(D3+D11)</f>
+        <v>4.2769230769230768E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6728971962616826E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4705882352941169E-3</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>5.2919254658385095E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
         <v>3.9036596809508918E-2</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" ref="J14" si="3">(J4*12-J5*12-J6*12-J7*12)/(J3+J11)</f>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
         <v>3.9298245614035089E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
-        <f>(C4*12-C5*12-C6*12-C7*12-C10*12)/(C8+C11)</f>
-        <v>9.9888888888888888E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" ref="D15:I15" si="4">(D4*12-D5*12-D6*12-D7*12-D10*12)/(D8+D11)</f>
+      <c r="C17" s="4">
+        <f>(C4-C5-C6-C7-C10)*12/(C8+C11)</f>
+        <v>9.1555555555555557E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:J17" si="4">(D4-D5-D6-D7-D10)*12/(D8+D11)</f>
         <v>0.11302222222222222</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E17" s="4">
         <f t="shared" si="4"/>
         <v>6.4763157894736842E-2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="4"/>
         <v>-1.187E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G17" s="4">
         <f t="shared" si="4"/>
         <v>0.21674458874458874</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H17" s="4">
         <f t="shared" si="4"/>
         <v>5.2919254658385095E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I17" s="4">
         <f t="shared" si="4"/>
         <v>8.5509601181683895E-2</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" ref="J15" si="5">(J4*12-J5*12-J6*12-J7*12-J10*12)/(J8+J11)</f>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
         <v>8.884285714285714E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C18" s="3">
         <f>C3/(C4-C5-C6-C7)</f>
-        <v>321.42857142857144</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:J16" si="6">D3/(D4-D5-D6-D7)</f>
+        <v>336.44859813084111</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:J18" si="5">D3/(D4-D5-D6-D7)</f>
         <v>269.78417266187051</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="6"/>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
         <v>316.03053435114504</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="6"/>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
         <v>1416.6666666666667</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="6"/>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
         <v>143.79562043795622</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" si="6"/>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
         <v>217.81690140845072</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="6"/>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
         <v>302.88461538461536</v>
       </c>
-      <c r="J16" s="3">
-        <f t="shared" si="6"/>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
         <v>303.57142857142856</v>
       </c>
     </row>
@@ -902,4 +991,553 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>360000</v>
+      </c>
+      <c r="D3">
+        <v>360000</v>
+      </c>
+      <c r="E3">
+        <v>360000</v>
+      </c>
+      <c r="F3">
+        <v>360000</v>
+      </c>
+      <c r="G3">
+        <v>360000</v>
+      </c>
+      <c r="H3">
+        <v>358000</v>
+      </c>
+      <c r="I3">
+        <v>358000</v>
+      </c>
+      <c r="J3">
+        <v>358000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1900</v>
+      </c>
+      <c r="D4">
+        <v>1900</v>
+      </c>
+      <c r="E4">
+        <v>1900</v>
+      </c>
+      <c r="F4">
+        <v>1900</v>
+      </c>
+      <c r="G4">
+        <v>1800</v>
+      </c>
+      <c r="H4">
+        <v>1800</v>
+      </c>
+      <c r="I4">
+        <v>1600</v>
+      </c>
+      <c r="J4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <f>1218/12</f>
+        <v>101.5</v>
+      </c>
+      <c r="I5">
+        <f>1218/12</f>
+        <v>101.5</v>
+      </c>
+      <c r="J5">
+        <f>1218/12</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>700</v>
+      </c>
+      <c r="D6">
+        <v>700</v>
+      </c>
+      <c r="E6">
+        <v>700</v>
+      </c>
+      <c r="F6">
+        <v>700</v>
+      </c>
+      <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
+        <v>377</v>
+      </c>
+      <c r="I6">
+        <v>377</v>
+      </c>
+      <c r="J6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>72000</v>
+      </c>
+      <c r="D8">
+        <v>80000</v>
+      </c>
+      <c r="E8">
+        <v>90000</v>
+      </c>
+      <c r="F8">
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <v>80000</v>
+      </c>
+      <c r="H8">
+        <f>358000*0.2</f>
+        <v>71600</v>
+      </c>
+      <c r="I8">
+        <f>358000*0.2</f>
+        <v>71600</v>
+      </c>
+      <c r="J8">
+        <f>80000</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <f>8190/12</f>
+        <v>682.5</v>
+      </c>
+      <c r="D9" s="6">
+        <f>7963/12</f>
+        <v>663.58333333333337</v>
+      </c>
+      <c r="E9" s="6">
+        <f>7678/12</f>
+        <v>639.83333333333337</v>
+      </c>
+      <c r="F9" s="6">
+        <f>7394/12</f>
+        <v>616.16666666666663</v>
+      </c>
+      <c r="G9" s="6">
+        <f>7963/12</f>
+        <v>663.58333333333337</v>
+      </c>
+      <c r="H9">
+        <f>8145/12</f>
+        <v>678.75</v>
+      </c>
+      <c r="I9">
+        <f>8145/12</f>
+        <v>678.75</v>
+      </c>
+      <c r="J9">
+        <f>7906/12</f>
+        <v>658.83333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <f>7647/12</f>
+        <v>637.25</v>
+      </c>
+      <c r="D10" s="6">
+        <f>7434/12</f>
+        <v>619.5</v>
+      </c>
+      <c r="E10" s="6">
+        <f>7169/12</f>
+        <v>597.41666666666663</v>
+      </c>
+      <c r="F10" s="6">
+        <f>6903/12</f>
+        <v>575.25</v>
+      </c>
+      <c r="G10" s="6">
+        <f>7434/12</f>
+        <v>619.5</v>
+      </c>
+      <c r="H10">
+        <f>7604/12</f>
+        <v>633.66666666666663</v>
+      </c>
+      <c r="I10">
+        <f>7604/12</f>
+        <v>633.66666666666663</v>
+      </c>
+      <c r="J10">
+        <f>7381/12</f>
+        <v>615.08333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C4-C5-C6-C7-(C9+C10)</f>
+        <v>-249.75</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:J13" si="0">D4-D5-D6-D7-(D9+D10)</f>
+        <v>-213.08333333333348</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>-167.25</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>-121.41666666666652</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>-313.08333333333348</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>-40.916666666666515</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>-240.91666666666652</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>-202.41666666666674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C4-C5-C6-C7-C10</f>
+        <v>432.75</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:J14" si="1">D4-D5-D6-D7-D10</f>
+        <v>450.5</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>472.58333333333337</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>494.75</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>350.5</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>637.83333333333337</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>437.83333333333337</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>456.41666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f>(C4-C5-C6-C7-(C9+C10))*12/(C8+C11)</f>
+        <v>-4.1625000000000002E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:J15" si="2">(D4-D5-D6-D7-(D9+D10))*12/(D8+D11)</f>
+        <v>-3.1962500000000026E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.23E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.4569999999999982E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.6962500000000025E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.8575418994413157E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.0377094972067012E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.0362500000000011E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(C4-C5-C6-C7)*12/(C3+C11)</f>
+        <v>3.5666666666666666E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:J16" si="3">(D4-D5-D6-D7)*12/(D3+D11)</f>
+        <v>3.5666666666666666E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5666666666666666E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5666666666666666E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2333333333333332E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2620111731843574E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5916201117318435E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5916201117318435E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(C4-C5-C6-C7-C10)*12/(C8+C11)</f>
+        <v>7.2124999999999995E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:J17" si="4">(D4-D5-D6-D7-D10)*12/(D8+D11)</f>
+        <v>6.7574999999999996E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="4"/>
+        <v>6.3011111111111115E-2</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>5.9369999999999999E-2</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="4"/>
+        <v>5.2574999999999997E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10689944134078212</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.3379888268156418E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
+        <v>6.8462499999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C3/(C4-C5-C6-C7)</f>
+        <v>336.44859813084111</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:J18" si="5">D3/(D4-D5-D6-D7)</f>
+        <v>336.44859813084111</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
+        <v>336.44859813084111</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
+        <v>336.44859813084111</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>371.13402061855669</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>281.55721588674794</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>334.1110592627158</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>334.1110592627158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/download/20200322-house-cash-cap-roi.xlsx
+++ b/download/20200322-house-cash-cap-roi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="CASH-CAP-ROI" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:J18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>315000</v>
       </c>
       <c r="J3">
-        <v>340000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>1500</v>
       </c>
       <c r="J4">
-        <v>1900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>280</v>
       </c>
       <c r="J6">
-        <v>700</v>
+        <v>387.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>63000</v>
       </c>
       <c r="J8">
-        <v>68000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,8 +692,8 @@
         <v>597.16666666666663</v>
       </c>
       <c r="J9">
-        <f>7735/12</f>
-        <v>644.58333333333337</v>
+        <f>8247.11/12</f>
+        <v>687.25916666666672</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -728,8 +728,8 @@
         <v>557.58333333333337</v>
       </c>
       <c r="J10">
-        <f>7221/12</f>
-        <v>601.75</v>
+        <f>7700/12</f>
+        <v>641.66666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="0"/>
-        <v>-126.33333333333348</v>
+        <v>3.4741666666668607</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="1"/>
-        <v>518.25</v>
+        <v>690.73333333333346</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="2"/>
-        <v>-2.1657142857142882E-2</v>
+        <v>4.0872549019610124E-4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
-        <v>3.9298245614035089E-2</v>
+        <v>4.0787755102040822E-2</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>8.884285714285714E-2</v>
+        <v>8.1262745098039227E-2</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="5"/>
-        <v>303.57142857142856</v>
+        <v>292.70489342539776</v>
       </c>
     </row>
   </sheetData>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/download/20200322-house-cash-cap-roi.xlsx
+++ b/download/20200322-house-cash-cap-roi.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CASH-CAP-ROI" sheetId="1" r:id="rId1"/>
     <sheet name="120" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="village green" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>房总价</t>
   </si>
@@ -100,7 +100,7 @@
     <t>隐现金流</t>
   </si>
   <si>
-    <t>现金流</t>
+    <t>CASH ON CASH现金流</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>1900</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E4">
         <v>3300</v>
@@ -609,7 +609,7 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D11">
         <v>15000</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" ref="D13:J13" si="0">D4-D5-D6-D7-(D9+D10)</f>
-        <v>89.083333333333258</v>
+        <v>-160.91666666666674</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ref="D14:J14" si="1">D4-D5-D6-D7-D10</f>
-        <v>847.66666666666663</v>
+        <v>597.66666666666663</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
@@ -845,11 +845,11 @@
       </c>
       <c r="C15" s="4">
         <f>(C4-C5-C6-C7-(C9+C10))*12/(C8+C11)</f>
-        <v>-2.9819444444444419E-2</v>
+        <v>-2.6182926829268271E-2</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ref="D15:J15" si="2">(D4-D5-D6-D7-(D9+D10))*12/(D8+D11)</f>
-        <v>1.1877777777777768E-2</v>
+        <v>-2.1455555555555565E-2</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="2"/>
@@ -882,11 +882,11 @@
       </c>
       <c r="C16" s="4">
         <f>(C4-C5-C6-C7)*12/(C3+C11)</f>
-        <v>3.5666666666666666E-2</v>
+        <v>3.4702702702702704E-2</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ref="D16:J16" si="3">(D4-D5-D6-D7)*12/(D3+D11)</f>
-        <v>4.2769230769230768E-2</v>
+        <v>3.5076923076923075E-2</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="3"/>
@@ -919,11 +919,11 @@
       </c>
       <c r="C17" s="4">
         <f>(C4-C5-C6-C7-C10)*12/(C8+C11)</f>
-        <v>9.1555555555555557E-2</v>
+        <v>8.0390243902439026E-2</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:J17" si="4">(D4-D5-D6-D7-D10)*12/(D8+D11)</f>
-        <v>0.11302222222222222</v>
+        <v>7.9688888888888892E-2</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="4"/>
@@ -960,7 +960,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ref="D18:J18" si="5">D3/(D4-D5-D6-D7)</f>
-        <v>269.78417266187051</v>
+        <v>328.94736842105266</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="5"/>
@@ -998,7 +998,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,12 +1532,554 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>450000</v>
+      </c>
+      <c r="D3">
+        <v>425000</v>
+      </c>
+      <c r="E3">
+        <v>430000</v>
+      </c>
+      <c r="F3">
+        <v>440000</v>
+      </c>
+      <c r="G3">
+        <v>420000</v>
+      </c>
+      <c r="H3">
+        <v>435000</v>
+      </c>
+      <c r="I3">
+        <v>315000</v>
+      </c>
+      <c r="J3">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4">
+        <v>1500</v>
+      </c>
+      <c r="J4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <v>160</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>160</v>
+      </c>
+      <c r="I5">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>445</v>
+      </c>
+      <c r="D6">
+        <v>445</v>
+      </c>
+      <c r="E6">
+        <v>445</v>
+      </c>
+      <c r="F6">
+        <v>445</v>
+      </c>
+      <c r="G6">
+        <v>445</v>
+      </c>
+      <c r="H6">
+        <v>445</v>
+      </c>
+      <c r="I6">
+        <v>280</v>
+      </c>
+      <c r="J6">
+        <v>387.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>90000</v>
+      </c>
+      <c r="D8">
+        <v>85000</v>
+      </c>
+      <c r="E8">
+        <v>86000</v>
+      </c>
+      <c r="F8">
+        <v>88000</v>
+      </c>
+      <c r="G8">
+        <v>84000</v>
+      </c>
+      <c r="H8">
+        <v>87000</v>
+      </c>
+      <c r="I8">
+        <v>63000</v>
+      </c>
+      <c r="J8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>10375.27/12</f>
+        <v>864.60583333333341</v>
+      </c>
+      <c r="D9">
+        <f>9799/12</f>
+        <v>816.58333333333337</v>
+      </c>
+      <c r="E9">
+        <f>9914/12</f>
+        <v>826.16666666666663</v>
+      </c>
+      <c r="F9">
+        <f>10144.62/12</f>
+        <v>845.3850000000001</v>
+      </c>
+      <c r="G9">
+        <f>9683.58/12</f>
+        <v>806.96500000000003</v>
+      </c>
+      <c r="H9">
+        <f>10029.42/12</f>
+        <v>835.78499999999997</v>
+      </c>
+      <c r="I9">
+        <f>7166/12</f>
+        <v>597.16666666666663</v>
+      </c>
+      <c r="J9">
+        <f>8247.11/12</f>
+        <v>687.25916666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>9201.41/12</f>
+        <v>766.78416666666669</v>
+      </c>
+      <c r="D10">
+        <f>8690/12</f>
+        <v>724.16666666666663</v>
+      </c>
+      <c r="E10">
+        <f>8792/12</f>
+        <v>732.66666666666663</v>
+      </c>
+      <c r="F10">
+        <f>8996.94/12</f>
+        <v>749.745</v>
+      </c>
+      <c r="G10">
+        <f>8587.98/12</f>
+        <v>715.66499999999996</v>
+      </c>
+      <c r="H10">
+        <f>8894.7/12</f>
+        <v>741.22500000000002</v>
+      </c>
+      <c r="I10">
+        <f>6691/12</f>
+        <v>557.58333333333337</v>
+      </c>
+      <c r="J10">
+        <f>7700/12</f>
+        <v>641.66666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>11500</v>
+      </c>
+      <c r="D11">
+        <v>11500</v>
+      </c>
+      <c r="E11">
+        <v>11500</v>
+      </c>
+      <c r="F11">
+        <v>11500</v>
+      </c>
+      <c r="G11">
+        <v>11500</v>
+      </c>
+      <c r="H11">
+        <v>11500</v>
+      </c>
+      <c r="I11">
+        <v>4700</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C4-C5-C6-C7-(C9+C10)</f>
+        <v>-286.3900000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <f>D4-D5-D6-D7-(D9+D10)</f>
+        <v>-195.75</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:J13" si="0">E4-E5-E6-E7-(E9+E10)</f>
+        <v>-213.83333333333326</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>-250.13000000000011</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>-177.63000000000011</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>-232.01</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>-114.75</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4741666666668607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C4-C5-C6-C7-C10</f>
+        <v>578.21583333333331</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:J14" si="1">D4-D5-D6-D7-D10</f>
+        <v>620.83333333333337</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>612.33333333333337</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>595.255</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>629.33500000000004</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>603.77499999999998</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>482.41666666666663</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>690.73333333333346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f>(C4-C5-C6-C7-(C9+C10))*12/(C8+C11)</f>
+        <v>-3.3858916256157646E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:J15" si="2">(D4-D5-D6-D7-(D9+D10))*12/(D8+D11)</f>
+        <v>-2.4341968911917099E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.6317948717948708E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.0166432160804033E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.2320000000000013E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.8265177664974619E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.03397341211226E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0872549019610124E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(C4-C5-C6-C7)*12/(C3+C11)</f>
+        <v>3.497291440953413E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:J16" si="3">(D4-D5-D6-D7)*12/(D3+D11)</f>
+        <v>3.6975945017182134E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6557191392978486E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5747508305647838E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <f>(G4-G5-G6-G7)*12/(G3+G11)</f>
+        <v>3.7404403244495947E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6147816349384097E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9036596809508918E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0787755102040822E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(C4-C5-C6-C7-C10)*12/(C8+C11)</f>
+        <v>6.8360492610837445E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:J17" si="4">(D4-D5-D6-D7-D10)*12/(D8+D11)</f>
+        <v>7.7202072538860106E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.5364102564102559E-2</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.1789547738693463E-2</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.9078743455497383E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.3556345177664961E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5509601181683895E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1262745098039227E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C3/(C4-C5-C6-C7)</f>
+        <v>334.57249070631968</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:J18" si="5">D3/(D4-D5-D6-D7)</f>
+        <v>315.98513011152414</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
+        <v>319.70260223048325</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
+        <v>327.13754646840147</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>312.26765799256503</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>323.42007434944236</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>302.88461538461536</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>292.70489342539776</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/download/20200322-house-cash-cap-roi.xlsx
+++ b/download/20200322-house-cash-cap-roi.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CASH-CAP-ROI" sheetId="1" r:id="rId1"/>
     <sheet name="120" sheetId="2" r:id="rId2"/>
     <sheet name="village green" sheetId="3" r:id="rId3"/>
+    <sheet name="old condo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>房总价</t>
   </si>
@@ -445,7 +446,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +741,7 @@
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="E11">
         <v>28000</v>
@@ -849,7 +850,7 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" ref="D15:J15" si="2">(D4-D5-D6-D7-(D9+D10))*12/(D8+D11)</f>
-        <v>-2.1455555555555565E-2</v>
+        <v>-2.232369942196533E-2</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="2"/>
@@ -886,7 +887,7 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ref="D16:J16" si="3">(D4-D5-D6-D7)*12/(D3+D11)</f>
-        <v>3.5076923076923075E-2</v>
+        <v>3.5394566623544628E-2</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="3"/>
@@ -923,7 +924,7 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:J17" si="4">(D4-D5-D6-D7-D10)*12/(D8+D11)</f>
-        <v>7.9688888888888892E-2</v>
+        <v>8.2913294797687859E-2</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="4"/>
@@ -1534,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,4 +2083,557 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>420000</v>
+      </c>
+      <c r="D3">
+        <v>41000</v>
+      </c>
+      <c r="E3">
+        <v>430000</v>
+      </c>
+      <c r="F3">
+        <v>440000</v>
+      </c>
+      <c r="G3">
+        <v>420000</v>
+      </c>
+      <c r="H3">
+        <v>435000</v>
+      </c>
+      <c r="I3">
+        <v>315000</v>
+      </c>
+      <c r="J3">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4">
+        <v>1500</v>
+      </c>
+      <c r="J4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>135</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <v>160</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>160</v>
+      </c>
+      <c r="I5">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>751</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>445</v>
+      </c>
+      <c r="F6">
+        <v>445</v>
+      </c>
+      <c r="G6">
+        <v>445</v>
+      </c>
+      <c r="H6">
+        <v>445</v>
+      </c>
+      <c r="I6">
+        <v>280</v>
+      </c>
+      <c r="J6">
+        <v>387.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>84000</v>
+      </c>
+      <c r="D8">
+        <v>82000</v>
+      </c>
+      <c r="E8">
+        <v>86000</v>
+      </c>
+      <c r="F8">
+        <v>88000</v>
+      </c>
+      <c r="G8">
+        <v>84000</v>
+      </c>
+      <c r="H8">
+        <v>87000</v>
+      </c>
+      <c r="I8">
+        <v>63000</v>
+      </c>
+      <c r="J8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>9684/12</f>
+        <v>807</v>
+      </c>
+      <c r="D9">
+        <f>9482/12</f>
+        <v>790.16666666666663</v>
+      </c>
+      <c r="E9">
+        <f>9914/12</f>
+        <v>826.16666666666663</v>
+      </c>
+      <c r="F9">
+        <f>10144.62/12</f>
+        <v>845.3850000000001</v>
+      </c>
+      <c r="G9">
+        <f>9683.58/12</f>
+        <v>806.96500000000003</v>
+      </c>
+      <c r="H9">
+        <f>10029.42/12</f>
+        <v>835.78499999999997</v>
+      </c>
+      <c r="I9">
+        <f>7166/12</f>
+        <v>597.16666666666663</v>
+      </c>
+      <c r="J9">
+        <f>8247.11/12</f>
+        <v>687.25916666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>8588/12</f>
+        <v>715.66666666666663</v>
+      </c>
+      <c r="D10">
+        <f>8384/12</f>
+        <v>698.66666666666663</v>
+      </c>
+      <c r="E10">
+        <f>8792/12</f>
+        <v>732.66666666666663</v>
+      </c>
+      <c r="F10">
+        <f>8996.94/12</f>
+        <v>749.745</v>
+      </c>
+      <c r="G10">
+        <f>8587.98/12</f>
+        <v>715.66499999999996</v>
+      </c>
+      <c r="H10">
+        <f>8894.7/12</f>
+        <v>741.22500000000002</v>
+      </c>
+      <c r="I10">
+        <f>6691/12</f>
+        <v>557.58333333333337</v>
+      </c>
+      <c r="J10">
+        <f>7700/12</f>
+        <v>641.66666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>11500</v>
+      </c>
+      <c r="D11">
+        <v>11500</v>
+      </c>
+      <c r="E11">
+        <v>11500</v>
+      </c>
+      <c r="F11">
+        <v>11500</v>
+      </c>
+      <c r="G11">
+        <v>11500</v>
+      </c>
+      <c r="H11">
+        <v>11500</v>
+      </c>
+      <c r="I11">
+        <v>4700</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C4-C5-C6-C7-(C9+C10)</f>
+        <v>-458.66666666666652</v>
+      </c>
+      <c r="D13" s="5">
+        <f>D4-D5-D6-D7-(D9+D10)</f>
+        <v>-258.83333333333326</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:J13" si="0">E4-E5-E6-E7-(E9+E10)</f>
+        <v>-213.83333333333326</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>-250.13000000000011</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>-177.63000000000011</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>-232.01</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>-114.75</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4741666666668607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C4-C5-C6-C7-C10</f>
+        <v>348.33333333333337</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:J14" si="1">D4-D5-D6-D7-D10</f>
+        <v>531.33333333333337</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>612.33333333333337</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>595.255</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>629.33500000000004</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>603.77499999999998</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>482.41666666666663</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>690.73333333333346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <f>(C4-C5-C6-C7-(C9+C10))*12/(C8+C11)</f>
+        <v>-5.7633507853403119E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:J15" si="2">(D4-D5-D6-D7-(D9+D10))*12/(D8+D11)</f>
+        <v>-3.3219251336898389E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.6317948717948708E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.0166432160804033E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.2320000000000013E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.8265177664974619E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.03397341211226E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0872549019610124E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(C4-C5-C6-C7)*12/(C3+C11)</f>
+        <v>2.9589803012746232E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:J16" si="3">(D4-D5-D6-D7)*12/(D3+D11)</f>
+        <v>0.28114285714285714</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6557191392978486E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5747508305647838E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <f>(G4-G5-G6-G7)*12/(G3+G11)</f>
+        <v>3.7404403244495947E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6147816349384097E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9036596809508918E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="3"/>
+        <v>4.0787755102040822E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(C4-C5-C6-C7-C10)*12/(C8+C11)</f>
+        <v>4.37696335078534E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:J17" si="4">(D4-D5-D6-D7-D10)*12/(D8+D11)</f>
+        <v>6.8192513368983951E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.5364102564102559E-2</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.1789547738693463E-2</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.9078743455497383E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="4"/>
+        <v>7.3556345177664961E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5509601181683895E-2</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1262745098039227E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C3/(C4-C5-C6-C7)</f>
+        <v>394.73684210526318</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:J18" si="5">D3/(D4-D5-D6-D7)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
+        <v>319.70260223048325</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
+        <v>327.13754646840147</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>312.26765799256503</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>323.42007434944236</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>302.88461538461536</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>292.70489342539776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>